--- a/natmiOut/OldD2/LR-pairs_lrc2p/Adam23-Itgb3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Adam23-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,10 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -89,15 +98,6 @@
   </si>
   <si>
     <t>Itgb3</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>18.7790377793868</v>
+        <v>0.056827</v>
       </c>
       <c r="H2">
-        <v>18.7790377793868</v>
+        <v>0.113654</v>
       </c>
       <c r="I2">
-        <v>0.8157724497605758</v>
+        <v>0.002198372771388981</v>
       </c>
       <c r="J2">
-        <v>0.8157724497605758</v>
+        <v>0.001552001951971484</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N2">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O2">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P2">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q2">
-        <v>92.39568155628668</v>
+        <v>0.3154455688735</v>
       </c>
       <c r="R2">
-        <v>92.39568155628668</v>
+        <v>1.261782275494</v>
       </c>
       <c r="S2">
-        <v>0.3627126543723371</v>
+        <v>0.001008595542670639</v>
       </c>
       <c r="T2">
-        <v>0.3627126543723371</v>
+        <v>0.0005717760026056152</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>18.7790377793868</v>
+        <v>0.056827</v>
       </c>
       <c r="H3">
-        <v>18.7790377793868</v>
+        <v>0.113654</v>
       </c>
       <c r="I3">
-        <v>0.8157724497605758</v>
+        <v>0.002198372771388981</v>
       </c>
       <c r="J3">
-        <v>0.8157724497605758</v>
+        <v>0.001552001951971484</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N3">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O3">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P3">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q3">
-        <v>23.63712122321076</v>
+        <v>0.07542119218899999</v>
       </c>
       <c r="R3">
-        <v>23.63712122321076</v>
+        <v>0.452527153134</v>
       </c>
       <c r="S3">
-        <v>0.09279094905933004</v>
+        <v>0.0002411493004526446</v>
       </c>
       <c r="T3">
-        <v>0.09279094905933004</v>
+        <v>0.0002050624515137976</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>18.7790377793868</v>
+        <v>0.056827</v>
       </c>
       <c r="H4">
-        <v>18.7790377793868</v>
+        <v>0.113654</v>
       </c>
       <c r="I4">
-        <v>0.8157724497605758</v>
+        <v>0.002198372771388981</v>
       </c>
       <c r="J4">
-        <v>0.8157724497605758</v>
+        <v>0.001552001951971484</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N4">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O4">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P4">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q4">
-        <v>4.608378329323631</v>
+        <v>0.014222888868</v>
       </c>
       <c r="R4">
-        <v>4.608378329323631</v>
+        <v>0.08533733320799999</v>
       </c>
       <c r="S4">
-        <v>0.01809085779796598</v>
+        <v>4.547580860746645E-05</v>
       </c>
       <c r="T4">
-        <v>0.01809085779796598</v>
+        <v>3.86705695604976E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>18.7790377793868</v>
+        <v>0.056827</v>
       </c>
       <c r="H5">
-        <v>18.7790377793868</v>
+        <v>0.113654</v>
       </c>
       <c r="I5">
-        <v>0.8157724497605758</v>
+        <v>0.002198372771388981</v>
       </c>
       <c r="J5">
-        <v>0.8157724497605758</v>
+        <v>0.001552001951971484</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N5">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O5">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P5">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q5">
-        <v>6.548741868138917</v>
+        <v>0.02028837554</v>
       </c>
       <c r="R5">
-        <v>6.548741868138917</v>
+        <v>0.12173025324</v>
       </c>
       <c r="S5">
-        <v>0.02570803641233929</v>
+        <v>6.486940111648236E-05</v>
       </c>
       <c r="T5">
-        <v>0.02570803641233929</v>
+        <v>5.51620029426126E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>18.7790377793868</v>
+        <v>0.056827</v>
       </c>
       <c r="H6">
-        <v>18.7790377793868</v>
+        <v>0.113654</v>
       </c>
       <c r="I6">
-        <v>0.8157724497605758</v>
+        <v>0.002198372771388981</v>
       </c>
       <c r="J6">
-        <v>0.8157724497605758</v>
+        <v>0.001552001951971484</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N6">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O6">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P6">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q6">
-        <v>69.30013715297112</v>
+        <v>0.2274147968753334</v>
       </c>
       <c r="R6">
-        <v>69.30013715297112</v>
+        <v>1.364488781252</v>
       </c>
       <c r="S6">
-        <v>0.272047743701187</v>
+        <v>0.000727128776241558</v>
       </c>
       <c r="T6">
-        <v>0.272047743701187</v>
+        <v>0.0006183174039586407</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>18.7790377793868</v>
+        <v>0.056827</v>
       </c>
       <c r="H7">
-        <v>18.7790377793868</v>
+        <v>0.113654</v>
       </c>
       <c r="I7">
-        <v>0.8157724497605758</v>
+        <v>0.002198372771388981</v>
       </c>
       <c r="J7">
-        <v>0.8157724497605758</v>
+        <v>0.001552001951971484</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N7">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O7">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P7">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q7">
-        <v>11.31590026839616</v>
+        <v>0.03476420138500001</v>
       </c>
       <c r="R7">
-        <v>11.31590026839616</v>
+        <v>0.13905680554</v>
       </c>
       <c r="S7">
-        <v>0.0444222084174165</v>
+        <v>0.0001111539423001895</v>
       </c>
       <c r="T7">
-        <v>0.0444222084174165</v>
+        <v>6.301352139031982E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.168125640760176</v>
+        <v>21.108446</v>
       </c>
       <c r="H8">
-        <v>0.168125640760176</v>
+        <v>63.325338</v>
       </c>
       <c r="I8">
-        <v>0.007303476751138085</v>
+        <v>0.8165877651949714</v>
       </c>
       <c r="J8">
-        <v>0.007303476751138085</v>
+        <v>0.8647390165348687</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N8">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O8">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P8">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q8">
-        <v>0.8272033608758794</v>
+        <v>117.172572131303</v>
       </c>
       <c r="R8">
-        <v>0.8272033608758794</v>
+        <v>703.035432787818</v>
       </c>
       <c r="S8">
-        <v>0.00324730681862256</v>
+        <v>0.3746438233287679</v>
       </c>
       <c r="T8">
-        <v>0.00324730681862256</v>
+        <v>0.3185801522629161</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.168125640760176</v>
+        <v>21.108446</v>
       </c>
       <c r="H9">
-        <v>0.168125640760176</v>
+        <v>63.325338</v>
       </c>
       <c r="I9">
-        <v>0.007303476751138085</v>
+        <v>0.8165877651949714</v>
       </c>
       <c r="J9">
-        <v>0.007303476751138085</v>
+        <v>0.8647390165348687</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N9">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O9">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P9">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q9">
-        <v>0.2116192638869077</v>
+        <v>28.015277290322</v>
       </c>
       <c r="R9">
-        <v>0.2116192638869077</v>
+        <v>252.137495612898</v>
       </c>
       <c r="S9">
-        <v>0.000830742125907482</v>
+        <v>0.08957514890003739</v>
       </c>
       <c r="T9">
-        <v>0.000830742125907482</v>
+        <v>0.1142559791403721</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.168125640760176</v>
+        <v>21.108446</v>
       </c>
       <c r="H10">
-        <v>0.168125640760176</v>
+        <v>63.325338</v>
       </c>
       <c r="I10">
-        <v>0.007303476751138085</v>
+        <v>0.8165877651949714</v>
       </c>
       <c r="J10">
-        <v>0.007303476751138085</v>
+        <v>0.8647390165348687</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N10">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O10">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P10">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q10">
-        <v>0.04125805425096409</v>
+        <v>5.283106298664</v>
       </c>
       <c r="R10">
-        <v>0.04125805425096409</v>
+        <v>47.547956687976</v>
       </c>
       <c r="S10">
-        <v>0.0001619644784208732</v>
+        <v>0.01689203460145777</v>
       </c>
       <c r="T10">
-        <v>0.0001619644784208732</v>
+        <v>0.02154633262420171</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.168125640760176</v>
+        <v>21.108446</v>
       </c>
       <c r="H11">
-        <v>0.168125640760176</v>
+        <v>63.325338</v>
       </c>
       <c r="I11">
-        <v>0.007303476751138085</v>
+        <v>0.8165877651949714</v>
       </c>
       <c r="J11">
-        <v>0.007303476751138085</v>
+        <v>0.8647390165348687</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N11">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O11">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P11">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q11">
-        <v>0.05862981030702197</v>
+        <v>7.536137390920001</v>
       </c>
       <c r="R11">
-        <v>0.05862981030702197</v>
+        <v>67.82523651828001</v>
       </c>
       <c r="S11">
-        <v>0.0002301598274249605</v>
+        <v>0.02409580394037355</v>
       </c>
       <c r="T11">
-        <v>0.0002301598274249605</v>
+        <v>0.03073497176604376</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.168125640760176</v>
+        <v>21.108446</v>
       </c>
       <c r="H12">
-        <v>0.168125640760176</v>
+        <v>63.325338</v>
       </c>
       <c r="I12">
-        <v>0.007303476751138085</v>
+        <v>0.8165877651949714</v>
       </c>
       <c r="J12">
-        <v>0.007303476751138085</v>
+        <v>0.8647390165348687</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N12">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O12">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P12">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q12">
-        <v>0.6204327453028745</v>
+        <v>84.47345380618269</v>
       </c>
       <c r="R12">
-        <v>0.6204327453028745</v>
+        <v>760.2610842556441</v>
       </c>
       <c r="S12">
-        <v>0.002435598765200189</v>
+        <v>0.270092711357999</v>
       </c>
       <c r="T12">
-        <v>0.002435598765200189</v>
+        <v>0.3445119274021456</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.168125640760176</v>
+        <v>21.108446</v>
       </c>
       <c r="H13">
-        <v>0.168125640760176</v>
+        <v>63.325338</v>
       </c>
       <c r="I13">
-        <v>0.007303476751138085</v>
+        <v>0.8165877651949714</v>
       </c>
       <c r="J13">
-        <v>0.007303476751138085</v>
+        <v>0.8647390165348687</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N13">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O13">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P13">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q13">
-        <v>0.1013093964532444</v>
+        <v>12.91319738273</v>
       </c>
       <c r="R13">
-        <v>0.1013093964532444</v>
+        <v>77.47918429638001</v>
       </c>
       <c r="S13">
-        <v>0.0003977047355620211</v>
+        <v>0.04128824306633583</v>
       </c>
       <c r="T13">
-        <v>0.0003977047355620211</v>
+        <v>0.0351096533391894</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>4.07278262595734</v>
+        <v>0.04350366666666667</v>
       </c>
       <c r="H14">
-        <v>4.07278262595734</v>
+        <v>0.130511</v>
       </c>
       <c r="I14">
-        <v>0.176924073488286</v>
+        <v>0.001682954867502814</v>
       </c>
       <c r="J14">
-        <v>0.176924073488286</v>
+        <v>0.001782192679129202</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N14">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O14">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P14">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q14">
-        <v>20.03870118249579</v>
+        <v>0.2414880053451667</v>
       </c>
       <c r="R14">
-        <v>20.03870118249579</v>
+        <v>1.448928032071</v>
       </c>
       <c r="S14">
-        <v>0.07866482906616536</v>
+        <v>0.0007721260015455556</v>
       </c>
       <c r="T14">
-        <v>0.07866482906616536</v>
+        <v>0.0006565810079369091</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>4.07278262595734</v>
+        <v>0.04350366666666667</v>
       </c>
       <c r="H15">
-        <v>4.07278262595734</v>
+        <v>0.130511</v>
       </c>
       <c r="I15">
-        <v>0.176924073488286</v>
+        <v>0.001682954867502814</v>
       </c>
       <c r="J15">
-        <v>0.176924073488286</v>
+        <v>0.001782192679129202</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N15">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O15">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P15">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q15">
-        <v>5.126399860125517</v>
+        <v>0.05773837092566667</v>
       </c>
       <c r="R15">
-        <v>5.126399860125517</v>
+        <v>0.519645338331</v>
       </c>
       <c r="S15">
-        <v>0.0201244264809862</v>
+        <v>0.0001846108149962465</v>
       </c>
       <c r="T15">
-        <v>0.0201244264809862</v>
+        <v>0.000235477023329731</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>4.07278262595734</v>
+        <v>0.04350366666666667</v>
       </c>
       <c r="H16">
-        <v>4.07278262595734</v>
+        <v>0.130511</v>
       </c>
       <c r="I16">
-        <v>0.176924073488286</v>
+        <v>0.001682954867502814</v>
       </c>
       <c r="J16">
-        <v>0.176924073488286</v>
+        <v>0.001782192679129202</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N16">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O16">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P16">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q16">
-        <v>0.9994613895558426</v>
+        <v>0.010888271708</v>
       </c>
       <c r="R16">
-        <v>0.9994613895558426</v>
+        <v>0.09799444537200001</v>
       </c>
       <c r="S16">
-        <v>0.003923530704491005</v>
+        <v>3.481381067197549E-05</v>
       </c>
       <c r="T16">
-        <v>0.003923530704491005</v>
+        <v>4.440613356248E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>4.07278262595734</v>
+        <v>0.04350366666666667</v>
       </c>
       <c r="H17">
-        <v>4.07278262595734</v>
+        <v>0.130511</v>
       </c>
       <c r="I17">
-        <v>0.176924073488286</v>
+        <v>0.001682954867502814</v>
       </c>
       <c r="J17">
-        <v>0.176924073488286</v>
+        <v>0.001782192679129202</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N17">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O17">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P17">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q17">
-        <v>1.42028587490847</v>
+        <v>0.01553167907333334</v>
       </c>
       <c r="R17">
-        <v>1.42028587490847</v>
+        <v>0.13978511166</v>
       </c>
       <c r="S17">
-        <v>0.005575538282509012</v>
+        <v>4.966049242503992E-05</v>
       </c>
       <c r="T17">
-        <v>0.005575538282509012</v>
+        <v>6.334355294176459E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>4.07278262595734</v>
+        <v>0.04350366666666667</v>
       </c>
       <c r="H18">
-        <v>4.07278262595734</v>
+        <v>0.130511</v>
       </c>
       <c r="I18">
-        <v>0.176924073488286</v>
+        <v>0.001682954867502814</v>
       </c>
       <c r="J18">
-        <v>0.176924073488286</v>
+        <v>0.001782192679129202</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N18">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O18">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P18">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q18">
-        <v>15.02975806795026</v>
+        <v>0.1740964245575556</v>
       </c>
       <c r="R18">
-        <v>15.02975806795026</v>
+        <v>1.566867821018</v>
       </c>
       <c r="S18">
-        <v>0.05900149608268531</v>
+        <v>0.0005566503230041</v>
       </c>
       <c r="T18">
-        <v>0.05900149608268531</v>
+        <v>0.0007100253638943298</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,1177 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.04350366666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.130511</v>
+      </c>
+      <c r="I19">
+        <v>0.001682954867502814</v>
+      </c>
+      <c r="J19">
+        <v>0.001782192679129202</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.611755</v>
+      </c>
+      <c r="N19">
+        <v>1.22351</v>
+      </c>
+      <c r="O19">
+        <v>0.05056191731758031</v>
+      </c>
+      <c r="P19">
+        <v>0.04060144467619692</v>
+      </c>
+      <c r="Q19">
+        <v>0.02661358560166667</v>
+      </c>
+      <c r="R19">
+        <v>0.15968151361</v>
+      </c>
+      <c r="S19">
+        <v>8.509342485989663E-05</v>
+      </c>
+      <c r="T19">
+        <v>7.235959746398747E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.2531386666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.759416</v>
+      </c>
+      <c r="I20">
+        <v>0.009792759642172055</v>
+      </c>
+      <c r="J20">
+        <v>0.01037020355076263</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>5.5509805</v>
+      </c>
+      <c r="N20">
+        <v>11.101961</v>
+      </c>
+      <c r="O20">
+        <v>0.4587918645086687</v>
+      </c>
+      <c r="P20">
+        <v>0.3684119094562331</v>
+      </c>
+      <c r="Q20">
+        <v>1.405167802462667</v>
+      </c>
+      <c r="R20">
+        <v>8.431006814776</v>
+      </c>
+      <c r="S20">
+        <v>0.00449283845491736</v>
+      </c>
+      <c r="T20">
+        <v>0.00382050649158627</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.2531386666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.759416</v>
+      </c>
+      <c r="I21">
+        <v>0.009792759642172055</v>
+      </c>
+      <c r="J21">
+        <v>0.01037020355076263</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.327207</v>
+      </c>
+      <c r="N21">
+        <v>3.981621</v>
+      </c>
+      <c r="O21">
+        <v>0.1096944538210784</v>
+      </c>
+      <c r="P21">
+        <v>0.1321277020646205</v>
+      </c>
+      <c r="Q21">
+        <v>0.3359674103706666</v>
+      </c>
+      <c r="R21">
+        <v>3.023706693336</v>
+      </c>
+      <c r="S21">
+        <v>0.001074211420349162</v>
+      </c>
+      <c r="T21">
+        <v>0.001370191165104634</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.2531386666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.759416</v>
+      </c>
+      <c r="I22">
+        <v>0.009792759642172055</v>
+      </c>
+      <c r="J22">
+        <v>0.01037020355076263</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.250284</v>
+      </c>
+      <c r="N22">
+        <v>0.750852</v>
+      </c>
+      <c r="O22">
+        <v>0.02068612257180288</v>
+      </c>
+      <c r="P22">
+        <v>0.02491657276034671</v>
+      </c>
+      <c r="Q22">
+        <v>0.063356558048</v>
+      </c>
+      <c r="R22">
+        <v>0.570209022432</v>
+      </c>
+      <c r="S22">
+        <v>0.0002025742262741757</v>
+      </c>
+      <c r="T22">
+        <v>0.0002583899313121829</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.2531386666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.759416</v>
+      </c>
+      <c r="I23">
+        <v>0.009792759642172055</v>
+      </c>
+      <c r="J23">
+        <v>0.01037020355076263</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.3570200000000001</v>
+      </c>
+      <c r="N23">
+        <v>1.07106</v>
+      </c>
+      <c r="O23">
+        <v>0.02950791692870925</v>
+      </c>
+      <c r="P23">
+        <v>0.03554248296694548</v>
+      </c>
+      <c r="Q23">
+        <v>0.09037556677333335</v>
+      </c>
+      <c r="R23">
+        <v>0.81338010096</v>
+      </c>
+      <c r="S23">
+        <v>0.0002889639380240295</v>
+      </c>
+      <c r="T23">
+        <v>0.0003685827830667384</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.2531386666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.759416</v>
+      </c>
+      <c r="I24">
+        <v>0.009792759642172055</v>
+      </c>
+      <c r="J24">
+        <v>0.01037020355076263</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>4.001879333333334</v>
+      </c>
+      <c r="N24">
+        <v>12.005638</v>
+      </c>
+      <c r="O24">
+        <v>0.3307577248521605</v>
+      </c>
+      <c r="P24">
+        <v>0.3983998880756572</v>
+      </c>
+      <c r="Q24">
+        <v>1.013030398600889</v>
+      </c>
+      <c r="R24">
+        <v>9.117273587408</v>
+      </c>
+      <c r="S24">
+        <v>0.003239030899268886</v>
+      </c>
+      <c r="T24">
+        <v>0.004131487933945616</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.2531386666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.759416</v>
+      </c>
+      <c r="I25">
+        <v>0.009792759642172055</v>
+      </c>
+      <c r="J25">
+        <v>0.01037020355076263</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.611755</v>
+      </c>
+      <c r="N25">
+        <v>1.22351</v>
+      </c>
+      <c r="O25">
+        <v>0.05056191731758031</v>
+      </c>
+      <c r="P25">
+        <v>0.04060144467619692</v>
+      </c>
+      <c r="Q25">
+        <v>0.1548588450266667</v>
+      </c>
+      <c r="R25">
+        <v>0.92915307016</v>
+      </c>
+      <c r="S25">
+        <v>0.0004951407033384408</v>
+      </c>
+      <c r="T25">
+        <v>0.0004210452457471898</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.1263413333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.379024</v>
+      </c>
+      <c r="I26">
+        <v>0.00488755955973356</v>
+      </c>
+      <c r="J26">
+        <v>0.005175761414855963</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>5.5509805</v>
+      </c>
+      <c r="N26">
+        <v>11.101961</v>
+      </c>
+      <c r="O26">
+        <v>0.4587918645086687</v>
+      </c>
+      <c r="P26">
+        <v>0.3684119094562331</v>
+      </c>
+      <c r="Q26">
+        <v>0.7013182776773332</v>
+      </c>
+      <c r="R26">
+        <v>4.207909666064</v>
+      </c>
+      <c r="S26">
+        <v>0.002242372563307327</v>
+      </c>
+      <c r="T26">
+        <v>0.00190681214573698</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.1263413333333333</v>
+      </c>
+      <c r="H27">
+        <v>0.379024</v>
+      </c>
+      <c r="I27">
+        <v>0.00488755955973356</v>
+      </c>
+      <c r="J27">
+        <v>0.005175761414855963</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1.327207</v>
+      </c>
+      <c r="N27">
+        <v>3.981621</v>
+      </c>
+      <c r="O27">
+        <v>0.1096944538210784</v>
+      </c>
+      <c r="P27">
+        <v>0.1321277020646205</v>
+      </c>
+      <c r="Q27">
+        <v>0.1676811019893333</v>
+      </c>
+      <c r="R27">
+        <v>1.509129917904</v>
+      </c>
+      <c r="S27">
+        <v>0.0005361381764229631</v>
+      </c>
+      <c r="T27">
+        <v>0.0006838614621796473</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>4.07278262595734</v>
-      </c>
-      <c r="H19">
-        <v>4.07278262595734</v>
-      </c>
-      <c r="I19">
-        <v>0.176924073488286</v>
-      </c>
-      <c r="J19">
-        <v>0.176924073488286</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.602581474159304</v>
-      </c>
-      <c r="N19">
-        <v>0.602581474159304</v>
-      </c>
-      <c r="O19">
-        <v>0.0544541660244277</v>
-      </c>
-      <c r="P19">
-        <v>0.0544541660244277</v>
-      </c>
-      <c r="Q19">
-        <v>2.454183358679775</v>
-      </c>
-      <c r="R19">
-        <v>2.454183358679775</v>
-      </c>
-      <c r="S19">
-        <v>0.009634252871449176</v>
-      </c>
-      <c r="T19">
-        <v>0.009634252871449176</v>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.1263413333333333</v>
+      </c>
+      <c r="H28">
+        <v>0.379024</v>
+      </c>
+      <c r="I28">
+        <v>0.00488755955973356</v>
+      </c>
+      <c r="J28">
+        <v>0.005175761414855963</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.250284</v>
+      </c>
+      <c r="N28">
+        <v>0.750852</v>
+      </c>
+      <c r="O28">
+        <v>0.02068612257180288</v>
+      </c>
+      <c r="P28">
+        <v>0.02491657276034671</v>
+      </c>
+      <c r="Q28">
+        <v>0.031621214272</v>
+      </c>
+      <c r="R28">
+        <v>0.284590928448</v>
+      </c>
+      <c r="S28">
+        <v>0.0001011046561296353</v>
+      </c>
+      <c r="T28">
+        <v>0.0001289622358834536</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.1263413333333333</v>
+      </c>
+      <c r="H29">
+        <v>0.379024</v>
+      </c>
+      <c r="I29">
+        <v>0.00488755955973356</v>
+      </c>
+      <c r="J29">
+        <v>0.005175761414855963</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.3570200000000001</v>
+      </c>
+      <c r="N29">
+        <v>1.07106</v>
+      </c>
+      <c r="O29">
+        <v>0.02950791692870925</v>
+      </c>
+      <c r="P29">
+        <v>0.03554248296694548</v>
+      </c>
+      <c r="Q29">
+        <v>0.04510638282666667</v>
+      </c>
+      <c r="R29">
+        <v>0.4059574454400001</v>
+      </c>
+      <c r="S29">
+        <v>0.0001442217014727366</v>
+      </c>
+      <c r="T29">
+        <v>0.0001839594119284917</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.1263413333333333</v>
+      </c>
+      <c r="H30">
+        <v>0.379024</v>
+      </c>
+      <c r="I30">
+        <v>0.00488755955973356</v>
+      </c>
+      <c r="J30">
+        <v>0.005175761414855963</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>4.001879333333334</v>
+      </c>
+      <c r="N30">
+        <v>12.005638</v>
+      </c>
+      <c r="O30">
+        <v>0.3307577248521605</v>
+      </c>
+      <c r="P30">
+        <v>0.3983998880756572</v>
+      </c>
+      <c r="Q30">
+        <v>0.5056027708124445</v>
+      </c>
+      <c r="R30">
+        <v>4.550424937312001</v>
+      </c>
+      <c r="S30">
+        <v>0.001616598080056899</v>
+      </c>
+      <c r="T30">
+        <v>0.002062022768384921</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.1263413333333333</v>
+      </c>
+      <c r="H31">
+        <v>0.379024</v>
+      </c>
+      <c r="I31">
+        <v>0.00488755955973356</v>
+      </c>
+      <c r="J31">
+        <v>0.005175761414855963</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.611755</v>
+      </c>
+      <c r="N31">
+        <v>1.22351</v>
+      </c>
+      <c r="O31">
+        <v>0.05056191731758031</v>
+      </c>
+      <c r="P31">
+        <v>0.04060144467619692</v>
+      </c>
+      <c r="Q31">
+        <v>0.07728994237333334</v>
+      </c>
+      <c r="R31">
+        <v>0.4637396542400001</v>
+      </c>
+      <c r="S31">
+        <v>0.0002471243823439975</v>
+      </c>
+      <c r="T31">
+        <v>0.0002101433907424691</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>4.261317500000001</v>
+      </c>
+      <c r="H32">
+        <v>8.522635000000001</v>
+      </c>
+      <c r="I32">
+        <v>0.1648505879642312</v>
+      </c>
+      <c r="J32">
+        <v>0.1163808238684119</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>5.5509805</v>
+      </c>
+      <c r="N32">
+        <v>11.101961</v>
+      </c>
+      <c r="O32">
+        <v>0.4587918645086687</v>
+      </c>
+      <c r="P32">
+        <v>0.3684119094562331</v>
+      </c>
+      <c r="Q32">
+        <v>23.65449034680875</v>
+      </c>
+      <c r="R32">
+        <v>94.617961387235</v>
+      </c>
+      <c r="S32">
+        <v>0.07563210861745991</v>
+      </c>
+      <c r="T32">
+        <v>0.04287608154545118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>4.261317500000001</v>
+      </c>
+      <c r="H33">
+        <v>8.522635000000001</v>
+      </c>
+      <c r="I33">
+        <v>0.1648505879642312</v>
+      </c>
+      <c r="J33">
+        <v>0.1163808238684119</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1.327207</v>
+      </c>
+      <c r="N33">
+        <v>3.981621</v>
+      </c>
+      <c r="O33">
+        <v>0.1096944538210784</v>
+      </c>
+      <c r="P33">
+        <v>0.1321277020646205</v>
+      </c>
+      <c r="Q33">
+        <v>5.6556504152225</v>
+      </c>
+      <c r="R33">
+        <v>33.933902491335</v>
+      </c>
+      <c r="S33">
+        <v>0.01808319520881997</v>
+      </c>
+      <c r="T33">
+        <v>0.0153771308221206</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>4.261317500000001</v>
+      </c>
+      <c r="H34">
+        <v>8.522635000000001</v>
+      </c>
+      <c r="I34">
+        <v>0.1648505879642312</v>
+      </c>
+      <c r="J34">
+        <v>0.1163808238684119</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.250284</v>
+      </c>
+      <c r="N34">
+        <v>0.750852</v>
+      </c>
+      <c r="O34">
+        <v>0.02068612257180288</v>
+      </c>
+      <c r="P34">
+        <v>0.02491657276034671</v>
+      </c>
+      <c r="Q34">
+        <v>1.06653958917</v>
+      </c>
+      <c r="R34">
+        <v>6.39923753502</v>
+      </c>
+      <c r="S34">
+        <v>0.003410119468661859</v>
+      </c>
+      <c r="T34">
+        <v>0.00289981126582638</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>4.261317500000001</v>
+      </c>
+      <c r="H35">
+        <v>8.522635000000001</v>
+      </c>
+      <c r="I35">
+        <v>0.1648505879642312</v>
+      </c>
+      <c r="J35">
+        <v>0.1163808238684119</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.3570200000000001</v>
+      </c>
+      <c r="N35">
+        <v>1.07106</v>
+      </c>
+      <c r="O35">
+        <v>0.02950791692870925</v>
+      </c>
+      <c r="P35">
+        <v>0.03554248296694548</v>
+      </c>
+      <c r="Q35">
+        <v>1.521375573850001</v>
+      </c>
+      <c r="R35">
+        <v>9.128253443100002</v>
+      </c>
+      <c r="S35">
+        <v>0.004864397455297409</v>
+      </c>
+      <c r="T35">
+        <v>0.004136463450022112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>4.261317500000001</v>
+      </c>
+      <c r="H36">
+        <v>8.522635000000001</v>
+      </c>
+      <c r="I36">
+        <v>0.1648505879642312</v>
+      </c>
+      <c r="J36">
+        <v>0.1163808238684119</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>4.001879333333334</v>
+      </c>
+      <c r="N36">
+        <v>12.005638</v>
+      </c>
+      <c r="O36">
+        <v>0.3307577248521605</v>
+      </c>
+      <c r="P36">
+        <v>0.3983998880756572</v>
+      </c>
+      <c r="Q36">
+        <v>17.05327843602167</v>
+      </c>
+      <c r="R36">
+        <v>102.31967061613</v>
+      </c>
+      <c r="S36">
+        <v>0.05452560541559005</v>
+      </c>
+      <c r="T36">
+        <v>0.04636610720332808</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>4.261317500000001</v>
+      </c>
+      <c r="H37">
+        <v>8.522635000000001</v>
+      </c>
+      <c r="I37">
+        <v>0.1648505879642312</v>
+      </c>
+      <c r="J37">
+        <v>0.1163808238684119</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.611755</v>
+      </c>
+      <c r="N37">
+        <v>1.22351</v>
+      </c>
+      <c r="O37">
+        <v>0.05056191731758031</v>
+      </c>
+      <c r="P37">
+        <v>0.04060144467619692</v>
+      </c>
+      <c r="Q37">
+        <v>2.606882287212501</v>
+      </c>
+      <c r="R37">
+        <v>10.42752914885</v>
+      </c>
+      <c r="S37">
+        <v>0.008335161798401956</v>
+      </c>
+      <c r="T37">
+        <v>0.004725229581663544</v>
       </c>
     </row>
   </sheetData>
